--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-91979.2124843038</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24432358.9548685</v>
+        <v>24287118.55483329</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2.120146366522109e-10</v>
+        <v>52839.80858482206</v>
       </c>
     </row>
     <row r="11">
@@ -25877,49 +25879,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>404.2587463296498</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>303.8846440306781</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>70.75136161874995</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>40.88018142109519</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>40.5121283012307</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>35.16270217958864</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>26.16960234776164</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>24.70558680915735</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>28.78411920260946</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>38.68062560122957</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>48.7545716309821</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>63.30032116317597</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>125.2176300895691</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>218.3110982283159</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>254.4593064281693</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25956,49 +25958,49 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>105.7156871369127</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>68.06446549689447</v>
       </c>
       <c r="I45" t="n">
-        <v>40.3065639</v>
+        <v>33.26482393573522</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>32.04616611589456</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>22.79957383374449</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>11.70671018907476</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>5.742459823057352</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>9.089916217646909</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>15.20444079080882</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>30.58525545770977</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>46.3017442093376</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>103.1111583538838</v>
       </c>
       <c r="T45" t="n">
-        <v>157.7484451748619</v>
+        <v>156.9240682287269</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3773027531635</v>
+        <v>195.3638471990916</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -26035,49 +26037,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>165.4064207588183</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>146.5868884245434</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>110.0261230059151</v>
       </c>
       <c r="J46" t="n">
-        <v>51.43314568295542</v>
+        <v>39.31047085697391</v>
       </c>
       <c r="K46" t="n">
-        <v>52.25036955906683</v>
+        <v>32.32909088142202</v>
       </c>
       <c r="L46" t="n">
-        <v>54.62829389390151</v>
+        <v>29.1359158427119</v>
       </c>
       <c r="M46" t="n">
-        <v>56.26494249878004</v>
+        <v>29.38680413894989</v>
       </c>
       <c r="N46" t="n">
-        <v>51.71264550841944</v>
+        <v>25.47360920319289</v>
       </c>
       <c r="O46" t="n">
-        <v>56.07489807299633</v>
+        <v>31.8389011340275</v>
       </c>
       <c r="P46" t="n">
-        <v>55.77984163990478</v>
+        <v>35.04175936076656</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.35952565992557</v>
+        <v>47.00155242833039</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>76.71023806313595</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>181.5396586372421</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>236.4206224485193</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>279.9608132663429</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.833541318774223e-11</v>
+        <v>91501.45202217718</v>
       </c>
     </row>
   </sheetData>
@@ -26353,7 +26355,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>10166.82800246413</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>63286.90325557741</v>
       </c>
     </row>
     <row r="4">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2072.872956614403</v>
       </c>
     </row>
     <row r="6">
@@ -26561,7 +26563,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-55192.94820972769</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>95.08591544102765</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>95.08591544102765</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.3822549364463421</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.914768367881102</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>14.73688343734762</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>32.44340991221275</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>48.62426137198642</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>60.32269588325618</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>67.12062210928381</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>68.20670394746197</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>64.40565642317367</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>54.96873767965459</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>41.27923276816995</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>24.01182165154755</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>8.710634364271028</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.673320984293863</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.03058039491570735</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.2045244218920218</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.975275337746631</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.041739964264785</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>19.32307268410544</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>33.0262089508709</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>44.40781362177429</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.82182391536007</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>48.66156278235309</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39.05519421199493</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>26.10736304712895</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>12.69845489606781</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>3.798951432950489</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.8243769461349471</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.01345555407184354</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.1714664048936564</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.52449221805451</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>5.15646243080196</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>12.12267482598151</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>19.9212786776448</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>25.49237805118961</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>26.87813835983015</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>26.23903630522655</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>24.23599693896883</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>20.73808227913822</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>14.35797323159518</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.709753078218404</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2.98819180164672</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.7326291845456226</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.009352712994199451</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91979.2124843038</v>
+        <v>-105617.4111606321</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24287118.55483329</v>
+        <v>24432358.9548685</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52839.80858482206</v>
+        <v>-2.120146366522109e-10</v>
       </c>
     </row>
     <row r="11">
@@ -25879,49 +25879,49 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.2587463296498</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>303.8846440306781</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>70.75136161874995</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
-        <v>40.88018142109519</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>40.5121283012307</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>35.16270217958864</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>26.16960234776164</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>24.70558680915735</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>28.78411920260946</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>38.68062560122957</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.7545716309821</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>63.30032116317597</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
-        <v>125.2176300895691</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>218.3110982283159</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4593064281693</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25958,49 +25958,49 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.7156871369127</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>68.06446549689447</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>33.26482393573522</v>
+        <v>40.3065639</v>
       </c>
       <c r="J45" t="n">
-        <v>32.04616611589456</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>22.79957383374449</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>11.70671018907476</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>5.742459823057352</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>9.089916217646909</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>15.20444079080882</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>30.58525545770977</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>46.3017442093376</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
-        <v>103.1111583538838</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
-        <v>156.9240682287269</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3638471990916</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -26037,49 +26037,49 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.4064207588183</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>146.5868884245434</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>110.0261230059151</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
-        <v>39.31047085697391</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K46" t="n">
-        <v>32.32909088142202</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L46" t="n">
-        <v>29.1359158427119</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M46" t="n">
-        <v>29.38680413894989</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N46" t="n">
-        <v>25.47360920319289</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O46" t="n">
-        <v>31.8389011340275</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P46" t="n">
-        <v>35.04175936076656</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.00155242833039</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R46" t="n">
-        <v>76.71023806313595</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>181.5396586372421</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>236.4206224485193</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9608132663429</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>91501.45202217718</v>
+        <v>-1.833541318774223e-11</v>
       </c>
     </row>
   </sheetData>
@@ -26355,7 +26355,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>10166.82800246413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>63286.90325557741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26511,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2072.872956614403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-35256.42393032457</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-35256.42393032457</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-35256.42393032457</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1628.823930324569</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1628.823930324569</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1628.823930324569</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-1628.823930324569</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-1628.823930324569</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-1628.823930324569</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-1628.823930324569</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-1628.823930324569</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-1628.823930324569</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-1628.823930324569</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-1628.823930324569</v>
       </c>
       <c r="P6" t="n">
-        <v>-55192.94820972769</v>
+        <v>-1628.823930324569</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>95.08591544102765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>95.08591544102765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3822549364463421</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>3.914768367881102</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>14.73688343734762</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>32.44340991221275</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>48.62426137198642</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>60.32269588325618</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>67.12062210928381</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>68.20670394746197</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>64.40565642317367</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>54.96873767965459</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>41.27923276816995</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>24.01182165154755</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>8.710634364271028</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.673320984293863</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03058039491570735</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2045244218920218</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.975275337746631</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.041739964264785</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>19.32307268410544</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>33.0262089508709</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>44.40781362177429</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.82182391536007</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>48.66156278235309</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>39.05519421199493</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>26.10736304712895</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>12.69845489606781</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>3.798951432950489</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8243769461349471</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01345555407184354</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1714664048936564</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.52449221805451</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>5.15646243080196</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.12267482598151</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>19.9212786776448</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>25.49237805118961</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>26.87813835983015</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>26.23903630522655</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>24.23599693896883</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>20.73808227913822</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>14.35797323159518</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.709753078218404</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.98819180164672</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7326291845456226</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009352712994199451</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
